--- a/biology/Zoologie/Craugastor_berkenbuschii/Craugastor_berkenbuschii.xlsx
+++ b/biology/Zoologie/Craugastor_berkenbuschii/Craugastor_berkenbuschii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craugastor berkenbuschii est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craugastor berkenbuschii est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre de 400 à 1 900 m d'altitude dans les États de San Luis Potosí, de Puebla, de Veracruz, de Tabasco et d'Oaxaca.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre de 400 à 1 900 m d'altitude dans les États de San Luis Potosí, de Puebla, de Veracruz, de Tabasco et d'Oaxaca.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Georg Heinrich August Berkenbusch (1821–1901)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Georg Heinrich August Berkenbusch (1821–1901).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1870 "1869" : Über mexicanische Amphibien, welche Hr. Berkenbusch in Puebla auf Veranlassung des Hrn. Legationsraths von Schlözer dem zoologischen Museum zugesandt hat. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 874-881 (texte intégral).</t>
         </is>
